--- a/summary/als/merged.xlsx
+++ b/summary/als/merged.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
   <si>
     <t>WELL</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ACAC-166</t>
   </si>
   <si>
+    <t>ACAD-095</t>
+  </si>
+  <si>
     <t>ACAE-082</t>
   </si>
   <si>
@@ -145,7 +148,7 @@
     <t>CLBA-006</t>
   </si>
   <si>
-    <t>CLBA-007R</t>
+    <t>CLBA-007R1</t>
   </si>
   <si>
     <t>CLBA-010H</t>
@@ -202,6 +205,9 @@
     <t>YLBA-030</t>
   </si>
   <si>
+    <t>YLBD-003</t>
+  </si>
+  <si>
     <t>YLBD-018</t>
   </si>
   <si>
@@ -214,25 +220,28 @@
     <t>YLBD-045H</t>
   </si>
   <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
     <t>Nov</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Jul</t>
   </si>
   <si>
     <t>Sep</t>
@@ -602,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,7 +687,7 @@
         <v>2025</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>12973.06</v>
@@ -716,7 +725,7 @@
         <v>2025</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>25184.02</v>
@@ -757,16 +766,16 @@
         <v>68</v>
       </c>
       <c r="E4">
-        <v>17609.86</v>
+        <v>18205.06</v>
       </c>
       <c r="F4">
-        <v>243494.334</v>
+        <v>324144.4391</v>
       </c>
       <c r="G4">
-        <v>23610.8909</v>
+        <v>25164.239</v>
       </c>
       <c r="H4">
-        <v>33707.7979</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -778,31 +787,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>81917.37000000001</v>
-      </c>
-      <c r="M4">
-        <v>39820.85</v>
-      </c>
-      <c r="N4">
-        <v>252738.5</v>
-      </c>
-      <c r="O4">
-        <v>21518.49</v>
-      </c>
-      <c r="P4">
-        <v>33647.97</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>81917.37000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -816,55 +801,55 @@
         <v>2025</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5">
-        <v>26603.62</v>
+        <v>17609.86</v>
       </c>
       <c r="F5">
-        <v>514831.7822</v>
+        <v>243494.334</v>
       </c>
       <c r="G5">
-        <v>27028.2567</v>
+        <v>23610.8909</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>33707.7979</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>141526.81</v>
+        <v>81917.37000000001</v>
       </c>
       <c r="M5">
-        <v>36289.75</v>
+        <v>39820.85</v>
       </c>
       <c r="N5">
-        <v>454846.71</v>
+        <v>252738.5</v>
       </c>
       <c r="O5">
-        <v>50340.94</v>
+        <v>21518.49</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>33647.97</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>141526.81</v>
+        <v>81917.37000000001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -878,55 +863,55 @@
         <v>2025</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6">
-        <v>16058</v>
+        <v>26603.62</v>
       </c>
       <c r="F6">
-        <v>317342.6932</v>
+        <v>514831.7822</v>
       </c>
       <c r="G6">
-        <v>26406.9175</v>
+        <v>27028.2567</v>
       </c>
       <c r="H6">
-        <v>36993.6621</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>83511.89999999999</v>
+        <v>141526.81</v>
       </c>
       <c r="M6">
-        <v>38308.97</v>
+        <v>36289.75</v>
       </c>
       <c r="N6">
-        <v>258025.36</v>
+        <v>454846.71</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>50340.94</v>
       </c>
       <c r="P6">
-        <v>30826.26</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>83812.86</v>
+        <v>141526.81</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -940,19 +925,19 @@
         <v>2025</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7">
-        <v>25746.82</v>
+        <v>16058</v>
       </c>
       <c r="F7">
-        <v>253990.6159</v>
+        <v>317342.6932</v>
       </c>
       <c r="G7">
-        <v>27960.2656</v>
+        <v>26406.9175</v>
       </c>
       <c r="H7">
-        <v>38765.8136</v>
+        <v>36993.6621</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -964,7 +949,31 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>83511.89999999999</v>
+      </c>
+      <c r="M7">
+        <v>38308.97</v>
+      </c>
+      <c r="N7">
+        <v>258025.36</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>30826.26</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>83812.86</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -978,19 +987,19 @@
         <v>2025</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E8">
-        <v>18755.46</v>
+        <v>25746.82</v>
       </c>
       <c r="F8">
-        <v>299802.0569</v>
+        <v>253990.6159</v>
       </c>
       <c r="G8">
-        <v>29513.6137</v>
+        <v>27960.2656</v>
       </c>
       <c r="H8">
-        <v>5712</v>
+        <v>38765.8136</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1002,30 +1011,6 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>28951.89</v>
-      </c>
-      <c r="N8">
-        <v>297890.78</v>
-      </c>
-      <c r="O8">
-        <v>25982.6</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
         <v>0</v>
       </c>
     </row>
@@ -1040,19 +1025,19 @@
         <v>2025</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9">
-        <v>19408.1</v>
+        <v>18755.46</v>
       </c>
       <c r="F9">
-        <v>28014.8339</v>
+        <v>299802.0569</v>
       </c>
       <c r="G9">
-        <v>55593.5105</v>
+        <v>29513.6137</v>
       </c>
       <c r="H9">
-        <v>36919.8225</v>
+        <v>5712</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1067,16 +1052,16 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>27337.44</v>
+        <v>28951.89</v>
       </c>
       <c r="N9">
-        <v>281453.91</v>
+        <v>297890.78</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>25982.6</v>
       </c>
       <c r="P9">
-        <v>21807.01</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1102,19 +1087,19 @@
         <v>2025</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E10">
-        <v>19027.18</v>
+        <v>19408.1</v>
       </c>
       <c r="F10">
-        <v>638405.0076</v>
+        <v>28014.8339</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>55593.5105</v>
       </c>
       <c r="H10">
-        <v>38027.4172</v>
+        <v>36919.8225</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1126,7 +1111,31 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>37198.7055</v>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>27337.44</v>
+      </c>
+      <c r="N10">
+        <v>281453.91</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>21807.01</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,55 +1149,31 @@
         <v>2025</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11">
-        <v>18205.06</v>
+        <v>19027.18</v>
       </c>
       <c r="F11">
-        <v>350421.9071</v>
+        <v>638405.0076</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>35996.8269</v>
+        <v>38027.4172</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>59030.4</v>
-      </c>
-      <c r="M11">
-        <v>34720.53</v>
-      </c>
-      <c r="N11">
-        <v>271057.69</v>
-      </c>
-      <c r="O11">
-        <v>19401.54</v>
-      </c>
-      <c r="P11">
-        <v>38992.08</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>59030.4</v>
+        <v>37198.7055</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,43 +1187,43 @@
         <v>2025</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12">
-        <v>13645.06</v>
+        <v>18205.06</v>
       </c>
       <c r="F12">
-        <v>299354.9628</v>
+        <v>350421.9071</v>
       </c>
       <c r="G12">
-        <v>12892.7891</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>18459.9112</v>
+        <v>35996.8269</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>59030.4</v>
       </c>
       <c r="M12">
-        <v>19217.69</v>
+        <v>34720.53</v>
       </c>
       <c r="N12">
-        <v>258930.56</v>
+        <v>271057.69</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>19401.54</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>38992.08</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1250,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>59030.4</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1258,13 +1243,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>2025</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>13645.06</v>
@@ -1288,6 +1273,30 @@
         <v>0</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>19217.69</v>
+      </c>
+      <c r="N13">
+        <v>258930.56</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>0</v>
       </c>
     </row>
@@ -1302,19 +1311,19 @@
         <v>2025</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E14">
-        <v>22457.38</v>
+        <v>13645.06</v>
       </c>
       <c r="F14">
-        <v>294985.4912</v>
+        <v>299354.9628</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>12892.7891</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>18459.9112</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1326,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>42006.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,19 +1349,19 @@
         <v>2025</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E15">
-        <v>44610.66</v>
+        <v>22457.38</v>
       </c>
       <c r="F15">
-        <v>358194.8644</v>
+        <v>294985.4912</v>
       </c>
       <c r="G15">
-        <v>49129.3974</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>25843.8757</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1361,10 +1370,34 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>68709.94259999999</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>42006.49</v>
+      </c>
+      <c r="M15">
+        <v>40780.28000000001</v>
+      </c>
+      <c r="N15">
+        <v>250365.09</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>42006.49</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1378,19 +1411,19 @@
         <v>2025</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16">
-        <v>35264.5</v>
+        <v>44610.66</v>
       </c>
       <c r="F16">
-        <v>290894.2855</v>
+        <v>358194.8644</v>
       </c>
       <c r="G16">
-        <v>25630.2434</v>
+        <v>49129.3974</v>
       </c>
       <c r="H16">
-        <v>36735.2234</v>
+        <v>25843.8757</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1399,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>68709.94259999999</v>
       </c>
       <c r="L16">
-        <v>41846.3631</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>37882.47</v>
+        <v>24406.71</v>
       </c>
       <c r="N16">
-        <v>278938.71</v>
+        <v>340968.83</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>5162.22</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>22756.23</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1423,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>115340</v>
       </c>
       <c r="T16">
-        <v>41846.3631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1440,19 +1473,19 @@
         <v>2025</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E17">
-        <v>13645.06</v>
+        <v>35264.5</v>
       </c>
       <c r="F17">
-        <v>299354.9628</v>
+        <v>290894.2855</v>
       </c>
       <c r="G17">
-        <v>12892.7891</v>
+        <v>25630.2434</v>
       </c>
       <c r="H17">
-        <v>18459.9112</v>
+        <v>36735.2234</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1464,7 +1497,31 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>41846.3631</v>
+      </c>
+      <c r="M17">
+        <v>37882.47</v>
+      </c>
+      <c r="N17">
+        <v>278938.71</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>41846.3631</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1478,19 +1535,19 @@
         <v>2025</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E18">
-        <v>21182.46</v>
+        <v>13645.06</v>
       </c>
       <c r="F18">
-        <v>516832.16</v>
+        <v>299354.9628</v>
       </c>
       <c r="G18">
-        <v>41714.5254</v>
+        <v>12892.7891</v>
       </c>
       <c r="H18">
-        <v>36735.2234</v>
+        <v>18459.9112</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1499,34 +1556,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5293.4</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>199012.794</v>
-      </c>
-      <c r="M18">
-        <v>29506.7</v>
-      </c>
-      <c r="N18">
-        <v>455228.52</v>
-      </c>
-      <c r="O18">
-        <v>2181.06</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>64902.09</v>
-      </c>
-      <c r="T18">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1534,22 +1567,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>2025</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E19">
-        <v>18397.06</v>
+        <v>21182.46</v>
       </c>
       <c r="F19">
-        <v>326646.9343</v>
+        <v>516832.16</v>
       </c>
       <c r="G19">
-        <v>24329.9319</v>
+        <v>41714.5254</v>
       </c>
       <c r="H19">
         <v>36735.2234</v>
@@ -1561,10 +1594,34 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5293.4</v>
       </c>
       <c r="L19">
-        <v>36863.1</v>
+        <v>199012.794</v>
+      </c>
+      <c r="M19">
+        <v>29506.7</v>
+      </c>
+      <c r="N19">
+        <v>455228.52</v>
+      </c>
+      <c r="O19">
+        <v>2181.06</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>64902.09</v>
+      </c>
+      <c r="T19">
+        <v>199012.794</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1578,19 +1635,19 @@
         <v>2025</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20">
-        <v>25142.02</v>
+        <v>18397.06</v>
       </c>
       <c r="F20">
-        <v>277188.6893</v>
+        <v>326646.9343</v>
       </c>
       <c r="G20">
-        <v>24698.2346</v>
+        <v>24329.9319</v>
       </c>
       <c r="H20">
-        <v>35406.1098</v>
+        <v>36735.2234</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1602,16 +1659,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>173339.58</v>
+        <v>36863.1</v>
       </c>
       <c r="M20">
-        <v>28089.2</v>
+        <v>36093.04</v>
       </c>
       <c r="N20">
-        <v>160763.94</v>
+        <v>324824.84</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>7421.05</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1626,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>173339.58</v>
+        <v>36863.1</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1640,19 +1697,19 @@
         <v>2025</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E21">
-        <v>15006.48</v>
+        <v>25142.02</v>
       </c>
       <c r="F21">
-        <v>324866.7652</v>
+        <v>277188.6893</v>
       </c>
       <c r="G21">
-        <v>38730.0079</v>
+        <v>24698.2346</v>
       </c>
       <c r="H21">
-        <v>39190.3916</v>
+        <v>35406.1098</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1664,7 +1721,31 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>173339.58</v>
+      </c>
+      <c r="M21">
+        <v>28089.2</v>
+      </c>
+      <c r="N21">
+        <v>160763.94</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>173339.58</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1678,19 +1759,19 @@
         <v>2025</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22">
-        <v>26099.62</v>
+        <v>15006.48</v>
       </c>
       <c r="F22">
-        <v>278579.4218</v>
+        <v>324866.7652</v>
       </c>
       <c r="G22">
-        <v>26251.5827</v>
+        <v>38730.0079</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>39190.3916</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1702,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>29992.31</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>24651.29</v>
+        <v>50944.75</v>
       </c>
       <c r="N22">
-        <v>267851.66</v>
+        <v>288251.2</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>16977.39</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1726,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>29992.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1740,16 +1821,16 @@
         <v>2025</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E23">
-        <v>27006.82</v>
+        <v>26099.62</v>
       </c>
       <c r="F23">
-        <v>264147.2883</v>
+        <v>278579.4218</v>
       </c>
       <c r="G23">
-        <v>27649.596</v>
+        <v>26251.5827</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1764,13 +1845,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>64312.56099999999</v>
+        <v>29992.31</v>
       </c>
       <c r="M23">
-        <v>33999.38</v>
+        <v>24651.29</v>
       </c>
       <c r="N23">
-        <v>278850.94</v>
+        <v>267851.66</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1788,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>64312.56099999999</v>
+        <v>29992.31</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1802,19 +1883,19 @@
         <v>2025</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E24">
-        <v>18896.26</v>
+        <v>27006.82</v>
       </c>
       <c r="F24">
-        <v>320793.0784</v>
+        <v>264147.2883</v>
       </c>
       <c r="G24">
-        <v>27028.2567</v>
+        <v>27649.596</v>
       </c>
       <c r="H24">
-        <v>10686.4527</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1826,7 +1907,31 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>64312.56099999999</v>
+      </c>
+      <c r="M24">
+        <v>33999.38</v>
+      </c>
+      <c r="N24">
+        <v>278850.94</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>64312.56099999999</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1840,19 +1945,19 @@
         <v>2025</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E25">
-        <v>17000</v>
+        <v>18896.26</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>320793.0784</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>27028.2567</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10686.4527</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1878,19 +1983,19 @@
         <v>2025</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E26">
-        <v>26563.62</v>
+        <v>17000</v>
       </c>
       <c r="F26">
-        <v>283269.233</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>25785.5783</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>36919.8225</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1902,31 +2007,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>18450</v>
-      </c>
-      <c r="M26">
-        <v>32674.29</v>
-      </c>
-      <c r="N26">
-        <v>290087.79</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>16697.25</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>18450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1943,16 +2024,16 @@
         <v>70</v>
       </c>
       <c r="E27">
-        <v>18812.78</v>
+        <v>26563.62</v>
       </c>
       <c r="F27">
-        <v>591541.1514</v>
+        <v>283269.233</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>25785.5783</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>36919.8225</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1961,34 +2042,34 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>95464.1189</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>19227.3628</v>
+        <v>18450</v>
       </c>
       <c r="M27">
-        <v>23508.78</v>
+        <v>32674.29</v>
       </c>
       <c r="N27">
-        <v>568269.17</v>
+        <v>290087.79</v>
       </c>
       <c r="O27">
-        <v>2615.02</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>16697.25</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>90840</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>19719.56</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -1999,19 +2080,19 @@
         <v>43</v>
       </c>
       <c r="C28">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E28">
-        <v>21300</v>
+        <v>18812.78</v>
       </c>
       <c r="F28">
-        <v>303500</v>
+        <v>591541.1514</v>
       </c>
       <c r="G28">
-        <v>39800</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2023,10 +2104,34 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>40000</v>
+        <v>95464.1189</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>19227.3628</v>
+      </c>
+      <c r="M28">
+        <v>23508.78</v>
+      </c>
+      <c r="N28">
+        <v>568269.17</v>
+      </c>
+      <c r="O28">
+        <v>2615.02</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>36493.87</v>
+      </c>
+      <c r="S28">
+        <v>90840</v>
+      </c>
+      <c r="T28">
+        <v>19719.56</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2040,16 +2145,16 @@
         <v>2025</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29">
-        <v>18963.92</v>
+        <v>21300</v>
       </c>
       <c r="F29">
-        <v>267383.277</v>
+        <v>303500</v>
       </c>
       <c r="G29">
-        <v>25093.7551</v>
+        <v>39800</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2058,36 +2163,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>29758.22</v>
-      </c>
-      <c r="N29">
-        <v>245114.65</v>
-      </c>
-      <c r="O29">
-        <v>6805.46</v>
-      </c>
-      <c r="P29">
-        <v>10800.63</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>36493.87</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
         <v>0</v>
       </c>
     </row>
@@ -2102,25 +2183,25 @@
         <v>2025</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30">
-        <v>16590.18</v>
+        <v>18963.92</v>
       </c>
       <c r="F30">
-        <v>327010.7217</v>
+        <v>267383.277</v>
       </c>
       <c r="G30">
-        <v>25630.2434</v>
+        <v>25093.7551</v>
       </c>
       <c r="H30">
-        <v>36402.945</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2129,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>21705.25</v>
+        <v>29758.22</v>
       </c>
       <c r="N30">
-        <v>287071.98</v>
+        <v>245114.65</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>6805.46</v>
       </c>
       <c r="P30">
-        <v>36194.4</v>
+        <v>10800.63</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2164,19 +2245,19 @@
         <v>2025</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E31">
-        <v>18460.42</v>
+        <v>16590.18</v>
       </c>
       <c r="F31">
-        <v>281664.89</v>
+        <v>327010.7217</v>
       </c>
       <c r="G31">
-        <v>25785.58</v>
+        <v>25630.2434</v>
       </c>
       <c r="H31">
-        <v>36978.89</v>
+        <v>36402.945</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2191,16 +2272,16 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>28420.94</v>
+        <v>21705.25</v>
       </c>
       <c r="N31">
-        <v>239742.97</v>
+        <v>287071.98</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>36194.4</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2226,19 +2307,19 @@
         <v>2025</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E32">
-        <v>18541.06</v>
+        <v>18460.42</v>
       </c>
       <c r="F32">
-        <v>319530.8217</v>
+        <v>281664.89</v>
       </c>
       <c r="G32">
-        <v>36708.3923</v>
+        <v>25785.58</v>
       </c>
       <c r="H32">
-        <v>37289.0207</v>
+        <v>36978.89</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2247,22 +2328,22 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>5373.2</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>24335.07</v>
+        <v>28420.94</v>
       </c>
       <c r="N32">
-        <v>247385.28</v>
+        <v>239742.97</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>6678.9</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2274,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2288,19 +2369,19 @@
         <v>2025</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E33">
-        <v>14932.88</v>
+        <v>18541.06</v>
       </c>
       <c r="F33">
-        <v>262147.1729</v>
+        <v>319530.8217</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>36708.3923</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>37289.0207</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2309,22 +2390,22 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>5376</v>
+        <v>5373.2</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="M33">
-        <v>22202.17</v>
+        <v>24335.07</v>
       </c>
       <c r="N33">
-        <v>232396.83</v>
+        <v>247385.28</v>
       </c>
       <c r="O33">
-        <v>3310.93</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>6678.9</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2336,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2350,19 +2431,19 @@
         <v>2025</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E34">
-        <v>16058</v>
+        <v>14932.88</v>
       </c>
       <c r="F34">
-        <v>317342.6932</v>
+        <v>262147.1729</v>
       </c>
       <c r="G34">
-        <v>26406.9175</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>36993.6621</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2371,19 +2452,19 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>5376</v>
       </c>
       <c r="L34">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>31949.91</v>
+        <v>22202.17</v>
       </c>
       <c r="N34">
-        <v>264422.99</v>
+        <v>231965.51</v>
       </c>
       <c r="O34">
-        <v>6589.74</v>
+        <v>3310.93</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2398,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2412,19 +2493,19 @@
         <v>2025</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E35">
-        <v>15265.68</v>
+        <v>16058</v>
       </c>
       <c r="F35">
-        <v>311352.2643</v>
+        <v>317342.6932</v>
       </c>
       <c r="G35">
         <v>26406.9175</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>36993.6621</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2436,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>14106.87</v>
       </c>
       <c r="M35">
-        <v>34725.64</v>
+        <v>31949.91</v>
       </c>
       <c r="N35">
-        <v>314368.92</v>
+        <v>264422.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>6589.74</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2460,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>14106.87</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2474,16 +2555,16 @@
         <v>2025</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E36">
-        <v>20558.98</v>
+        <v>15265.68</v>
       </c>
       <c r="F36">
-        <v>300178.145</v>
+        <v>311352.2643</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>26406.9175</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2492,12 +2573,36 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>34725.64</v>
+      </c>
+      <c r="N36">
+        <v>314368.92</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
         <v>0</v>
       </c>
     </row>
@@ -2512,13 +2617,13 @@
         <v>2025</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E37">
-        <v>80000</v>
+        <v>20558.98</v>
       </c>
       <c r="F37">
-        <v>120000</v>
+        <v>300178.145</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2527,16 +2632,40 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>22674.42</v>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>35983.12</v>
+      </c>
+      <c r="N37">
+        <v>297098.25</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>36493.87</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -2550,22 +2679,22 @@
         <v>2025</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E38">
-        <v>14668.56</v>
+        <v>80000</v>
       </c>
       <c r="F38">
-        <v>301721.9088</v>
+        <v>120000</v>
       </c>
       <c r="G38">
-        <v>24232.2302</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2574,16 +2703,16 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>22674.42</v>
       </c>
       <c r="M38">
-        <v>27181.54</v>
+        <v>52083.67</v>
       </c>
       <c r="N38">
-        <v>270393.7</v>
+        <v>166132.1</v>
       </c>
       <c r="O38">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -2612,22 +2741,22 @@
         <v>2025</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E39">
-        <v>30000</v>
+        <v>14668.56</v>
       </c>
       <c r="F39">
-        <v>120000</v>
+        <v>301721.9088</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>24232.2302</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2636,16 +2765,16 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>22674.42</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>81189.56</v>
+        <v>27181.54</v>
       </c>
       <c r="N39">
-        <v>75026.78</v>
+        <v>270393.7</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>22089.34</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -2674,43 +2803,43 @@
         <v>2025</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F40">
-        <v>433983.8522</v>
+        <v>120000</v>
       </c>
       <c r="G40">
-        <v>66756.6691</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>37362.8604</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>10000</v>
+        <v>70000</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>110048.5105</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>22674.42</v>
       </c>
       <c r="M40">
-        <v>33875.99</v>
+        <v>81189.56</v>
       </c>
       <c r="N40">
-        <v>388449.69</v>
+        <v>75026.78</v>
       </c>
       <c r="O40">
-        <v>41728.31</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>34125.23</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -2722,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>21490.444</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2736,43 +2865,43 @@
         <v>2025</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E41">
-        <v>19881.64</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>544086.7781999999</v>
+        <v>433983.8522</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>66756.6691</v>
       </c>
       <c r="H41">
-        <v>34335.4349</v>
+        <v>37362.8604</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>110048.5105</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>24492.98</v>
+        <v>33875.99</v>
       </c>
       <c r="N41">
-        <v>532274.26</v>
+        <v>388449.69</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>41728.31</v>
       </c>
       <c r="P41">
-        <v>13669.61</v>
+        <v>34125.23</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -2798,19 +2927,19 @@
         <v>2025</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E42">
-        <v>20006.44</v>
+        <v>19881.64</v>
       </c>
       <c r="F42">
-        <v>386492.0891</v>
+        <v>544086.7781999999</v>
       </c>
       <c r="G42">
-        <v>26973.826</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>34335.4349</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2822,6 +2951,30 @@
         <v>0</v>
       </c>
       <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>24492.98</v>
+      </c>
+      <c r="N42">
+        <v>532274.26</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>13669.61</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
         <v>0</v>
       </c>
     </row>
@@ -2836,22 +2989,22 @@
         <v>2025</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E43">
-        <v>32773.06</v>
+        <v>20006.44</v>
       </c>
       <c r="F43">
-        <v>341581.165</v>
+        <v>386492.0891</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>26973.826</v>
       </c>
       <c r="H43">
-        <v>36550.6243</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2860,30 +3013,6 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>35046.84</v>
-      </c>
-      <c r="N43">
-        <v>349849.48</v>
-      </c>
-      <c r="O43">
-        <v>11417</v>
-      </c>
-      <c r="P43">
-        <v>36470.26</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
         <v>0</v>
       </c>
     </row>
@@ -2901,19 +3030,19 @@
         <v>72</v>
       </c>
       <c r="E44">
-        <v>29792.44</v>
+        <v>32773.06</v>
       </c>
       <c r="F44">
-        <v>592371.3167</v>
+        <v>341581.165</v>
       </c>
       <c r="G44">
-        <v>25940.9131</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>37196.7212</v>
+        <v>36550.6243</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2922,22 +3051,22 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>35571.27</v>
+        <v>35046.84</v>
       </c>
       <c r="N44">
-        <v>48616.23</v>
+        <v>349849.48</v>
       </c>
       <c r="O44">
-        <v>37765.32</v>
+        <v>11417</v>
       </c>
       <c r="P44">
-        <v>37083.02</v>
+        <v>36470.26</v>
       </c>
       <c r="Q44">
-        <v>26413.08</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -2946,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -2960,19 +3089,19 @@
         <v>2025</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>29792.44</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>592371.3167</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>25940.9131</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>37196.7212</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2984,22 +3113,22 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>500373.46</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>35571.27</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>48616.23</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>37765.32</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>37083.02</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>26413.08</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -3008,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>500373.46</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3022,7 +3151,7 @@
         <v>2025</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3046,6 +3175,30 @@
         <v>0</v>
       </c>
       <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <v>0</v>
       </c>
     </row>
@@ -3060,16 +3213,16 @@
         <v>2025</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E47">
-        <v>25326.82</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>276375.5386</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>25008.9042</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -3084,31 +3237,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>23876.1125</v>
-      </c>
-      <c r="M47">
-        <v>27944</v>
-      </c>
-      <c r="N47">
-        <v>230888.76</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3122,19 +3251,19 @@
         <v>2025</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E48">
-        <v>18541.06</v>
+        <v>23898.82</v>
       </c>
       <c r="F48">
-        <v>252067.7995</v>
+        <v>409625.5938</v>
       </c>
       <c r="G48">
-        <v>26979.2036</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>36919.8225</v>
+        <v>32674.0429</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3143,34 +3272,10 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>52444.52</v>
-      </c>
-      <c r="M48">
-        <v>28895.31</v>
-      </c>
-      <c r="N48">
-        <v>251643.6000000001</v>
-      </c>
-      <c r="O48">
-        <v>3379</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>8029.89</v>
-      </c>
-      <c r="T48">
-        <v>52444.52</v>
+        <v>42006.49</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3184,19 +3289,19 @@
         <v>2025</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E49">
-        <v>21854.46</v>
+        <v>25326.82</v>
       </c>
       <c r="F49">
-        <v>624821.7819000001</v>
+        <v>276375.5386</v>
       </c>
       <c r="G49">
-        <v>12116.1151</v>
+        <v>25008.9042</v>
       </c>
       <c r="H49">
-        <v>40316.4462</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3205,22 +3310,22 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>19487.5781</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>229812.833425</v>
+        <v>23876.1125</v>
       </c>
       <c r="M49">
-        <v>29071.03</v>
+        <v>27944</v>
       </c>
       <c r="N49">
-        <v>325344.86</v>
+        <v>230888.76</v>
       </c>
       <c r="O49">
-        <v>91485.00999999999</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>39357.69</v>
+        <v>0</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3229,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>229812.833425</v>
+        <v>23876.1125</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3246,54 +3351,178 @@
         <v>2025</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E50">
+        <v>18541.06</v>
+      </c>
+      <c r="F50">
+        <v>252067.7995</v>
+      </c>
+      <c r="G50">
+        <v>26979.2036</v>
+      </c>
+      <c r="H50">
+        <v>36919.8225</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>5600</v>
+      </c>
+      <c r="L50">
+        <v>52444.52</v>
+      </c>
+      <c r="M50">
+        <v>28895.31</v>
+      </c>
+      <c r="N50">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="O50">
+        <v>3379</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>8029.89</v>
+      </c>
+      <c r="T50">
+        <v>52444.52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>2025</v>
+      </c>
+      <c r="D51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51">
+        <v>21854.46</v>
+      </c>
+      <c r="F51">
+        <v>624821.7819000001</v>
+      </c>
+      <c r="G51">
+        <v>12116.1151</v>
+      </c>
+      <c r="H51">
+        <v>40316.4462</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>19487.5781</v>
+      </c>
+      <c r="L51">
+        <v>229812.833425</v>
+      </c>
+      <c r="M51">
+        <v>33879.14</v>
+      </c>
+      <c r="N51">
+        <v>325344.86</v>
+      </c>
+      <c r="O51">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="P51">
+        <v>39357.69</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>63566</v>
+      </c>
+      <c r="T51">
+        <v>229812.833425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52">
+        <v>2025</v>
+      </c>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52">
         <v>27683.86</v>
       </c>
-      <c r="F50">
+      <c r="F52">
         <v>418982.5319</v>
       </c>
-      <c r="G50">
+      <c r="G52">
         <v>51527.9349</v>
       </c>
-      <c r="H50">
+      <c r="H52">
         <v>40992.0789</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
         <v>181185.5419</v>
       </c>
-      <c r="L50">
+      <c r="L52">
         <v>60577.37</v>
       </c>
-      <c r="M50">
+      <c r="M52">
         <v>30868.28</v>
       </c>
-      <c r="N50">
+      <c r="N52">
         <v>363209.57</v>
       </c>
-      <c r="O50">
+      <c r="O52">
         <v>65966.92</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
         <v>95933.12</v>
       </c>
-      <c r="T50">
+      <c r="T52">
         <v>60577.37</v>
       </c>
     </row>

--- a/summary/als/merged.xlsx
+++ b/summary/als/merged.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
   <si>
     <t>WELL</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ACAC-166</t>
   </si>
   <si>
+    <t>ACAD-095</t>
+  </si>
+  <si>
     <t>ACAE-082</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t>ACAI-106</t>
   </si>
   <si>
+    <t>ACAJ-154</t>
+  </si>
+  <si>
     <t>ACAK-125</t>
   </si>
   <si>
@@ -145,7 +151,7 @@
     <t>CLBA-006</t>
   </si>
   <si>
-    <t>CLBA-007R</t>
+    <t>CLBA-007R1</t>
   </si>
   <si>
     <t>CLBA-010H</t>
@@ -178,6 +184,12 @@
     <t>CNOI-041</t>
   </si>
   <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>TBD INY</t>
+  </si>
+  <si>
     <t>TTSA-002</t>
   </si>
   <si>
@@ -202,6 +214,9 @@
     <t>YLBA-030</t>
   </si>
   <si>
+    <t>YLBD-003</t>
+  </si>
+  <si>
     <t>YLBD-018</t>
   </si>
   <si>
@@ -214,25 +229,28 @@
     <t>YLBD-045H</t>
   </si>
   <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
     <t>Nov</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Jul</t>
   </si>
   <si>
     <t>Sep</t>
@@ -602,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,7 +696,7 @@
         <v>2025</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E2">
         <v>12973.06</v>
@@ -702,6 +720,30 @@
         <v>0</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>13391.57</v>
+      </c>
+      <c r="N2">
+        <v>279350.01</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>63774.22</v>
+      </c>
+      <c r="T2">
         <v>0</v>
       </c>
     </row>
@@ -716,7 +758,7 @@
         <v>2025</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>25184.02</v>
@@ -754,19 +796,19 @@
         <v>2025</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E4">
-        <v>17609.86</v>
+        <v>18205.06</v>
       </c>
       <c r="F4">
-        <v>243494.334</v>
+        <v>324144.4391</v>
       </c>
       <c r="G4">
-        <v>23610.8909</v>
+        <v>25164.239</v>
       </c>
       <c r="H4">
-        <v>33707.7979</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -778,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>81917.37000000001</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>39820.85</v>
+        <v>33666.72</v>
       </c>
       <c r="N4">
-        <v>252738.5</v>
+        <v>341703.8</v>
       </c>
       <c r="O4">
-        <v>21518.49</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>33647.97</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -802,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>81917.37000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -816,55 +858,55 @@
         <v>2025</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E5">
-        <v>26603.62</v>
+        <v>17609.86</v>
       </c>
       <c r="F5">
-        <v>514831.7822</v>
+        <v>243494.334</v>
       </c>
       <c r="G5">
-        <v>27028.2567</v>
+        <v>23610.8909</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>33707.7979</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>141526.81</v>
+        <v>81917.37000000001</v>
       </c>
       <c r="M5">
-        <v>36289.75</v>
+        <v>39820.85</v>
       </c>
       <c r="N5">
-        <v>454846.71</v>
+        <v>252738.5</v>
       </c>
       <c r="O5">
-        <v>50340.94</v>
+        <v>21518.49</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>33647.97</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>141526.81</v>
+        <v>81917.37000000001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -878,55 +920,55 @@
         <v>2025</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E6">
-        <v>16058</v>
+        <v>26603.62</v>
       </c>
       <c r="F6">
-        <v>317342.6932</v>
+        <v>514831.7822</v>
       </c>
       <c r="G6">
-        <v>26406.9175</v>
+        <v>27028.2567</v>
       </c>
       <c r="H6">
-        <v>36993.6621</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>83511.89999999999</v>
+        <v>141526.81</v>
       </c>
       <c r="M6">
-        <v>38308.97</v>
+        <v>36289.75</v>
       </c>
       <c r="N6">
-        <v>258025.36</v>
+        <v>454846.71</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>50340.94</v>
       </c>
       <c r="P6">
-        <v>30826.26</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>83812.86</v>
+        <v>141526.81</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -940,19 +982,19 @@
         <v>2025</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E7">
-        <v>25746.82</v>
+        <v>16058</v>
       </c>
       <c r="F7">
-        <v>253990.6159</v>
+        <v>317342.6932</v>
       </c>
       <c r="G7">
-        <v>27960.2656</v>
+        <v>26406.9175</v>
       </c>
       <c r="H7">
-        <v>38765.8136</v>
+        <v>36993.6621</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -964,7 +1006,31 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>83511.89999999999</v>
+      </c>
+      <c r="M7">
+        <v>38308.97</v>
+      </c>
+      <c r="N7">
+        <v>258025.36</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>30826.26</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>83812.86</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -978,19 +1044,19 @@
         <v>2025</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E8">
-        <v>18755.46</v>
+        <v>25746.82</v>
       </c>
       <c r="F8">
-        <v>299802.0569</v>
+        <v>253990.6159</v>
       </c>
       <c r="G8">
-        <v>29513.6137</v>
+        <v>27960.2656</v>
       </c>
       <c r="H8">
-        <v>5712</v>
+        <v>38765.8136</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1002,30 +1068,6 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>28951.89</v>
-      </c>
-      <c r="N8">
-        <v>297890.78</v>
-      </c>
-      <c r="O8">
-        <v>25982.6</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
         <v>0</v>
       </c>
     </row>
@@ -1040,19 +1082,19 @@
         <v>2025</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E9">
-        <v>19408.1</v>
+        <v>18755.46</v>
       </c>
       <c r="F9">
-        <v>28014.8339</v>
+        <v>299802.0569</v>
       </c>
       <c r="G9">
-        <v>55593.5105</v>
+        <v>29513.6137</v>
       </c>
       <c r="H9">
-        <v>36919.8225</v>
+        <v>5712</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1067,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>27337.44</v>
+        <v>28951.89</v>
       </c>
       <c r="N9">
-        <v>281453.91</v>
+        <v>297890.78</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>25982.6</v>
       </c>
       <c r="P9">
-        <v>21807.01</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1102,19 +1144,19 @@
         <v>2025</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E10">
-        <v>19027.18</v>
+        <v>19408.1</v>
       </c>
       <c r="F10">
-        <v>638405.0076</v>
+        <v>28014.8339</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>55593.5105</v>
       </c>
       <c r="H10">
-        <v>38027.4172</v>
+        <v>36919.8225</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1126,7 +1168,31 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>37198.7055</v>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>27337.44</v>
+      </c>
+      <c r="N10">
+        <v>281453.91</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>21807.01</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,55 +1206,31 @@
         <v>2025</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11">
-        <v>18205.06</v>
+        <v>19027.18</v>
       </c>
       <c r="F11">
-        <v>350421.9071</v>
+        <v>638405.0076</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>35996.8269</v>
+        <v>38027.4172</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>59030.4</v>
-      </c>
-      <c r="M11">
-        <v>34720.53</v>
-      </c>
-      <c r="N11">
-        <v>271057.69</v>
-      </c>
-      <c r="O11">
-        <v>19401.54</v>
-      </c>
-      <c r="P11">
-        <v>38992.08</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>59030.4</v>
+        <v>37198.7055</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,19 +1244,19 @@
         <v>2025</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E12">
-        <v>13645.06</v>
+        <v>12973.06</v>
       </c>
       <c r="F12">
-        <v>299354.9628</v>
+        <v>207427.7507</v>
       </c>
       <c r="G12">
-        <v>12892.7891</v>
+        <v>26424.582</v>
       </c>
       <c r="H12">
-        <v>18459.9112</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1226,30 +1268,6 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>19217.69</v>
-      </c>
-      <c r="N12">
-        <v>258930.56</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
         <v>0</v>
       </c>
     </row>
@@ -1258,37 +1276,61 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>2025</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E13">
-        <v>13645.06</v>
+        <v>18205.06</v>
       </c>
       <c r="F13">
-        <v>299354.9628</v>
+        <v>350421.9071</v>
       </c>
       <c r="G13">
-        <v>12892.7891</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>18459.9112</v>
+        <v>35996.8269</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>59030.4</v>
+      </c>
+      <c r="M13">
+        <v>34720.53</v>
+      </c>
+      <c r="N13">
+        <v>271057.69</v>
+      </c>
+      <c r="O13">
+        <v>19401.54</v>
+      </c>
+      <c r="P13">
+        <v>38992.08</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>59030.4</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,25 +1338,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>2025</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E14">
-        <v>22457.38</v>
+        <v>13645.06</v>
       </c>
       <c r="F14">
-        <v>294985.4912</v>
+        <v>299354.9628</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>12892.7891</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>18459.9112</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1326,7 +1368,31 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>42006.49</v>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>19217.69</v>
+      </c>
+      <c r="N14">
+        <v>258930.56</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,19 +1406,19 @@
         <v>2025</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E15">
-        <v>44610.66</v>
+        <v>11806.48</v>
       </c>
       <c r="F15">
-        <v>358194.8644</v>
+        <v>442421.2041</v>
       </c>
       <c r="G15">
-        <v>49129.3974</v>
+        <v>12582.1195</v>
       </c>
       <c r="H15">
-        <v>25843.8757</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1361,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>68709.94259999999</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>251388.46</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1378,19 +1444,19 @@
         <v>2025</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E16">
-        <v>35264.5</v>
+        <v>22457.38</v>
       </c>
       <c r="F16">
-        <v>290894.2855</v>
+        <v>294985.4912</v>
       </c>
       <c r="G16">
-        <v>25630.2434</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>36735.2234</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1402,13 +1468,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>41846.3631</v>
+        <v>42006.49</v>
       </c>
       <c r="M16">
-        <v>37882.47</v>
+        <v>40780.28000000001</v>
       </c>
       <c r="N16">
-        <v>278938.71</v>
+        <v>250365.09</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1426,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>41846.3631</v>
+        <v>42006.49</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1440,19 +1506,19 @@
         <v>2025</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E17">
-        <v>13645.06</v>
+        <v>44610.66</v>
       </c>
       <c r="F17">
-        <v>299354.9628</v>
+        <v>358194.8644</v>
       </c>
       <c r="G17">
-        <v>12892.7891</v>
+        <v>49129.3974</v>
       </c>
       <c r="H17">
-        <v>18459.9112</v>
+        <v>25843.8757</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1461,9 +1527,33 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>68709.94259999999</v>
       </c>
       <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>24406.71</v>
+      </c>
+      <c r="N17">
+        <v>334593.33</v>
+      </c>
+      <c r="O17">
+        <v>5162.22</v>
+      </c>
+      <c r="P17">
+        <v>22756.23</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>115340</v>
+      </c>
+      <c r="T17">
         <v>0</v>
       </c>
     </row>
@@ -1478,16 +1568,16 @@
         <v>2025</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E18">
-        <v>21182.46</v>
+        <v>35264.5</v>
       </c>
       <c r="F18">
-        <v>516832.16</v>
+        <v>290894.2855</v>
       </c>
       <c r="G18">
-        <v>41714.5254</v>
+        <v>25630.2434</v>
       </c>
       <c r="H18">
         <v>36735.2234</v>
@@ -1499,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5293.4</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>199012.794</v>
+        <v>41846.3631</v>
       </c>
       <c r="M18">
-        <v>29506.7</v>
+        <v>37882.47</v>
       </c>
       <c r="N18">
-        <v>455228.52</v>
+        <v>278938.71</v>
       </c>
       <c r="O18">
-        <v>2181.06</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1523,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>64902.09</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>199012.794</v>
+        <v>41846.3631</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1534,25 +1624,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>2025</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E19">
-        <v>18397.06</v>
+        <v>13645.06</v>
       </c>
       <c r="F19">
-        <v>326646.9343</v>
+        <v>299354.9628</v>
       </c>
       <c r="G19">
-        <v>24329.9319</v>
+        <v>12892.7891</v>
       </c>
       <c r="H19">
-        <v>36735.2234</v>
+        <v>18459.9112</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1564,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>36863.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1572,25 +1662,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>2025</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20">
-        <v>25142.02</v>
+        <v>21182.46</v>
       </c>
       <c r="F20">
-        <v>277188.6893</v>
+        <v>516832.16</v>
       </c>
       <c r="G20">
-        <v>24698.2346</v>
+        <v>41714.5254</v>
       </c>
       <c r="H20">
-        <v>35406.1098</v>
+        <v>36735.2234</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1599,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5293.4</v>
       </c>
       <c r="L20">
-        <v>173339.58</v>
+        <v>199012.794</v>
       </c>
       <c r="M20">
-        <v>28089.2</v>
+        <v>29506.7</v>
       </c>
       <c r="N20">
-        <v>160763.94</v>
+        <v>455228.52</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2181.06</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1623,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>64902.09</v>
       </c>
       <c r="T20">
-        <v>173339.58</v>
+        <v>199012.794</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1640,19 +1730,19 @@
         <v>2025</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E21">
-        <v>15006.48</v>
+        <v>18397.06</v>
       </c>
       <c r="F21">
-        <v>324866.7652</v>
+        <v>326646.9343</v>
       </c>
       <c r="G21">
-        <v>38730.0079</v>
+        <v>24329.9319</v>
       </c>
       <c r="H21">
-        <v>39190.3916</v>
+        <v>36735.2234</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1664,7 +1754,31 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>36863.1</v>
+      </c>
+      <c r="M21">
+        <v>36093.04</v>
+      </c>
+      <c r="N21">
+        <v>324824.84</v>
+      </c>
+      <c r="O21">
+        <v>7421.05</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>36863.1</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1678,19 +1792,19 @@
         <v>2025</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E22">
-        <v>26099.62</v>
+        <v>25142.02</v>
       </c>
       <c r="F22">
-        <v>278579.4218</v>
+        <v>277188.6893</v>
       </c>
       <c r="G22">
-        <v>26251.5827</v>
+        <v>24698.2346</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>35406.1098</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1702,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>29992.31</v>
+        <v>173339.58</v>
       </c>
       <c r="M22">
-        <v>24651.29</v>
+        <v>28089.2</v>
       </c>
       <c r="N22">
-        <v>267851.66</v>
+        <v>160763.94</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1726,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>29992.31</v>
+        <v>173339.58</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1740,19 +1854,19 @@
         <v>2025</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E23">
-        <v>27006.82</v>
+        <v>15006.48</v>
       </c>
       <c r="F23">
-        <v>264147.2883</v>
+        <v>324866.7652</v>
       </c>
       <c r="G23">
-        <v>27649.596</v>
+        <v>38730.0079</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>39190.3916</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1764,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>64312.56099999999</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>33999.38</v>
+        <v>50944.75</v>
       </c>
       <c r="N23">
-        <v>278850.94</v>
+        <v>288251.2</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>16977.39</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -1788,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>64312.56099999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1802,19 +1916,19 @@
         <v>2025</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E24">
-        <v>18896.26</v>
+        <v>26099.62</v>
       </c>
       <c r="F24">
-        <v>320793.0784</v>
+        <v>278579.4218</v>
       </c>
       <c r="G24">
-        <v>27028.2567</v>
+        <v>26251.5827</v>
       </c>
       <c r="H24">
-        <v>10686.4527</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1826,7 +1940,31 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>29992.31</v>
+      </c>
+      <c r="M24">
+        <v>24651.29</v>
+      </c>
+      <c r="N24">
+        <v>267851.66</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>29992.31</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1840,16 +1978,16 @@
         <v>2025</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E25">
-        <v>17000</v>
+        <v>27006.82</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>264147.2883</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>27649.596</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1864,7 +2002,31 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>64312.56099999999</v>
+      </c>
+      <c r="M25">
+        <v>33999.38</v>
+      </c>
+      <c r="N25">
+        <v>278850.94</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>64312.56099999999</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -1878,19 +2040,19 @@
         <v>2025</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E26">
-        <v>26563.62</v>
+        <v>18896.26</v>
       </c>
       <c r="F26">
-        <v>283269.233</v>
+        <v>320793.0784</v>
       </c>
       <c r="G26">
-        <v>25785.5783</v>
+        <v>27028.2567</v>
       </c>
       <c r="H26">
-        <v>36919.8225</v>
+        <v>10686.4527</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1902,31 +2064,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>18450</v>
-      </c>
-      <c r="M26">
-        <v>32674.29</v>
-      </c>
-      <c r="N26">
-        <v>290087.79</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>16697.25</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>18450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1940,13 +2078,13 @@
         <v>2025</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E27">
-        <v>18812.78</v>
+        <v>17000</v>
       </c>
       <c r="F27">
-        <v>591541.1514</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1961,34 +2099,10 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>95464.1189</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>19227.3628</v>
-      </c>
-      <c r="M27">
-        <v>23508.78</v>
-      </c>
-      <c r="N27">
-        <v>568269.17</v>
-      </c>
-      <c r="O27">
-        <v>2615.02</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>36493.87</v>
-      </c>
-      <c r="S27">
-        <v>90840</v>
-      </c>
-      <c r="T27">
-        <v>19719.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -1999,22 +2113,22 @@
         <v>43</v>
       </c>
       <c r="C28">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E28">
-        <v>21300</v>
+        <v>26563.62</v>
       </c>
       <c r="F28">
-        <v>303500</v>
+        <v>283269.233</v>
       </c>
       <c r="G28">
-        <v>39800</v>
+        <v>25785.5783</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>36919.8225</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2023,10 +2137,34 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>18450</v>
+      </c>
+      <c r="M28">
+        <v>32674.29</v>
+      </c>
+      <c r="N28">
+        <v>290087.79</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>16697.25</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>18450</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2040,16 +2178,16 @@
         <v>2025</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E29">
-        <v>18963.92</v>
+        <v>18812.78</v>
       </c>
       <c r="F29">
-        <v>267383.277</v>
+        <v>591541.1514</v>
       </c>
       <c r="G29">
-        <v>25093.7551</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2058,25 +2196,25 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>95464.1189</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>19227.3628</v>
       </c>
       <c r="M29">
-        <v>29758.22</v>
+        <v>23508.78</v>
       </c>
       <c r="N29">
-        <v>245114.65</v>
+        <v>568269.17</v>
       </c>
       <c r="O29">
-        <v>6805.46</v>
+        <v>2615.02</v>
       </c>
       <c r="P29">
-        <v>10800.63</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2085,10 +2223,10 @@
         <v>36493.87</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>90840</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>19719.56</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2102,19 +2240,19 @@
         <v>2025</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30">
-        <v>16590.18</v>
+        <v>21300</v>
       </c>
       <c r="F30">
-        <v>327010.7217</v>
+        <v>303500</v>
       </c>
       <c r="G30">
-        <v>25630.2434</v>
+        <v>39800</v>
       </c>
       <c r="H30">
-        <v>36402.945</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2123,33 +2261,9 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>21705.25</v>
-      </c>
-      <c r="N30">
-        <v>287071.98</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>36194.4</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
         <v>0</v>
       </c>
     </row>
@@ -2164,25 +2278,25 @@
         <v>2025</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E31">
-        <v>18460.42</v>
+        <v>18963.92</v>
       </c>
       <c r="F31">
-        <v>281664.89</v>
+        <v>267383.277</v>
       </c>
       <c r="G31">
-        <v>25785.58</v>
+        <v>25093.7551</v>
       </c>
       <c r="H31">
-        <v>36978.89</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2191,22 +2305,22 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>28420.94</v>
+        <v>29758.22</v>
       </c>
       <c r="N31">
-        <v>239742.97</v>
+        <v>245114.65</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>6805.46</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>10800.63</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2226,19 +2340,19 @@
         <v>2025</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E32">
-        <v>18541.06</v>
+        <v>16590.18</v>
       </c>
       <c r="F32">
-        <v>319530.8217</v>
+        <v>327010.7217</v>
       </c>
       <c r="G32">
-        <v>36708.3923</v>
+        <v>25630.2434</v>
       </c>
       <c r="H32">
-        <v>37289.0207</v>
+        <v>36402.945</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2247,22 +2361,22 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>5373.2</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>24335.07</v>
+        <v>21705.25</v>
       </c>
       <c r="N32">
-        <v>247385.28</v>
+        <v>287071.98</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>6678.9</v>
+        <v>36194.4</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2274,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2288,19 +2402,19 @@
         <v>2025</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E33">
-        <v>14932.88</v>
+        <v>18460.42</v>
       </c>
       <c r="F33">
-        <v>262147.1729</v>
+        <v>281664.89</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>25785.58</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>36978.89</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2309,19 +2423,19 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>5376</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>22202.17</v>
+        <v>28420.94</v>
       </c>
       <c r="N33">
-        <v>232396.83</v>
+        <v>239742.97</v>
       </c>
       <c r="O33">
-        <v>3310.93</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2350,19 +2464,19 @@
         <v>2025</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E34">
-        <v>16058</v>
+        <v>18541.06</v>
       </c>
       <c r="F34">
-        <v>317342.6932</v>
+        <v>319530.8217</v>
       </c>
       <c r="G34">
-        <v>26406.9175</v>
+        <v>36708.3923</v>
       </c>
       <c r="H34">
-        <v>36993.6621</v>
+        <v>37289.0207</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2371,22 +2485,22 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>5373.2</v>
       </c>
       <c r="L34">
-        <v>14106.87</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="M34">
-        <v>31949.91</v>
+        <v>24335.07</v>
       </c>
       <c r="N34">
-        <v>264422.99</v>
+        <v>247385.28</v>
       </c>
       <c r="O34">
-        <v>6589.74</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>6678.9</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2398,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>14106.87</v>
+        <v>82632.71000000001</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2412,16 +2526,16 @@
         <v>2025</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E35">
-        <v>15265.68</v>
+        <v>14932.88</v>
       </c>
       <c r="F35">
-        <v>311352.2643</v>
+        <v>262147.1729</v>
       </c>
       <c r="G35">
-        <v>26406.9175</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2433,19 +2547,19 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>5376</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>34725.64</v>
+        <v>22202.17</v>
       </c>
       <c r="N35">
-        <v>314368.92</v>
+        <v>231965.51</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>3310.93</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2477,28 +2591,52 @@
         <v>73</v>
       </c>
       <c r="E36">
-        <v>20558.98</v>
+        <v>16058</v>
       </c>
       <c r="F36">
-        <v>300178.145</v>
+        <v>317342.6932</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>26406.9175</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>36993.6621</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>14106.87</v>
+      </c>
+      <c r="M36">
+        <v>31949.91</v>
+      </c>
+      <c r="N36">
+        <v>264422.99</v>
+      </c>
+      <c r="O36">
+        <v>6589.74</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>14106.87</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2512,22 +2650,22 @@
         <v>2025</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E37">
-        <v>80000</v>
+        <v>15265.68</v>
       </c>
       <c r="F37">
-        <v>120000</v>
+        <v>311352.2643</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>26406.9175</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2536,7 +2674,31 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>22674.42</v>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>34725.64</v>
+      </c>
+      <c r="N37">
+        <v>314368.92</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -2550,16 +2712,16 @@
         <v>2025</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E38">
-        <v>14668.56</v>
+        <v>20558.98</v>
       </c>
       <c r="F38">
-        <v>301721.9088</v>
+        <v>300178.145</v>
       </c>
       <c r="G38">
-        <v>24232.2302</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2568,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2577,13 +2739,13 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>27181.54</v>
+        <v>35983.12</v>
       </c>
       <c r="N38">
-        <v>270393.7</v>
+        <v>297098.25</v>
       </c>
       <c r="O38">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -2592,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -2612,10 +2774,10 @@
         <v>2025</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E39">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="F39">
         <v>120000</v>
@@ -2627,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2639,10 +2801,10 @@
         <v>22674.42</v>
       </c>
       <c r="M39">
-        <v>81189.56</v>
+        <v>52083.67</v>
       </c>
       <c r="N39">
-        <v>75026.78</v>
+        <v>166132.1</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -2674,43 +2836,43 @@
         <v>2025</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>14668.56</v>
       </c>
       <c r="F40">
-        <v>433983.8522</v>
+        <v>301721.9088</v>
       </c>
       <c r="G40">
-        <v>66756.6691</v>
+        <v>24232.2302</v>
       </c>
       <c r="H40">
-        <v>37362.8604</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>110048.5105</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>33875.99</v>
+        <v>27181.54</v>
       </c>
       <c r="N40">
-        <v>388449.69</v>
+        <v>270393.7</v>
       </c>
       <c r="O40">
-        <v>41728.31</v>
+        <v>22089.34</v>
       </c>
       <c r="P40">
-        <v>34125.23</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -2736,19 +2898,19 @@
         <v>2025</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E41">
-        <v>19881.64</v>
+        <v>103206.2</v>
       </c>
       <c r="F41">
-        <v>544086.7781999999</v>
+        <v>2076739.152</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>182668.1546</v>
       </c>
       <c r="H41">
-        <v>34335.4349</v>
+        <v>151186.6732</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2760,30 +2922,6 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>24492.98</v>
-      </c>
-      <c r="N41">
-        <v>532274.26</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>13669.61</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
         <v>0</v>
       </c>
     </row>
@@ -2798,16 +2936,16 @@
         <v>2025</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
-        <v>20006.44</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>386492.0891</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>26973.826</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2836,22 +2974,22 @@
         <v>2025</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E43">
-        <v>32773.06</v>
+        <v>30000</v>
       </c>
       <c r="F43">
-        <v>341581.165</v>
+        <v>120000</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>36550.6243</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>15000</v>
+        <v>70000</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2860,19 +2998,19 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>22674.42</v>
       </c>
       <c r="M43">
-        <v>35046.84</v>
+        <v>81189.56</v>
       </c>
       <c r="N43">
-        <v>349849.48</v>
+        <v>75026.78</v>
       </c>
       <c r="O43">
-        <v>11417</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>36470.26</v>
+        <v>0</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -2884,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>21490.444</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -2898,46 +3036,46 @@
         <v>2025</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E44">
-        <v>29792.44</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>592371.3167</v>
+        <v>433983.8522</v>
       </c>
       <c r="G44">
-        <v>25940.9131</v>
+        <v>66756.6691</v>
       </c>
       <c r="H44">
-        <v>37196.7212</v>
+        <v>37362.8604</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>110048.5105</v>
       </c>
       <c r="L44">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>35571.27</v>
+        <v>33875.99</v>
       </c>
       <c r="N44">
-        <v>48616.23</v>
+        <v>388449.69</v>
       </c>
       <c r="O44">
-        <v>37765.32</v>
+        <v>41728.31</v>
       </c>
       <c r="P44">
-        <v>37083.02</v>
+        <v>34125.23</v>
       </c>
       <c r="Q44">
-        <v>26413.08</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -2946,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -2960,19 +3098,19 @@
         <v>2025</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>19881.64</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>544086.7781999999</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>34335.4349</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2987,16 +3125,16 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>24492.98</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>532274.26</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>13669.61</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3022,16 +3160,16 @@
         <v>2025</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>20006.44</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>386492.0891</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>26973.826</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3060,22 +3198,22 @@
         <v>2025</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E47">
-        <v>25326.82</v>
+        <v>32773.06</v>
       </c>
       <c r="F47">
-        <v>276375.5386</v>
+        <v>341581.165</v>
       </c>
       <c r="G47">
-        <v>25008.9042</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>36550.6243</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3084,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>27944</v>
+        <v>35046.84</v>
       </c>
       <c r="N47">
-        <v>230888.76</v>
+        <v>349849.48</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>11417</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>36470.26</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3108,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3122,19 +3260,19 @@
         <v>2025</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E48">
-        <v>18541.06</v>
+        <v>29792.44</v>
       </c>
       <c r="F48">
-        <v>252067.7995</v>
+        <v>592371.3167</v>
       </c>
       <c r="G48">
-        <v>26979.2036</v>
+        <v>25940.9131</v>
       </c>
       <c r="H48">
-        <v>36919.8225</v>
+        <v>37196.7212</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3143,34 +3281,34 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>52444.52</v>
+        <v>500373.46</v>
       </c>
       <c r="M48">
-        <v>28895.31</v>
+        <v>35571.27</v>
       </c>
       <c r="N48">
-        <v>251643.6000000001</v>
+        <v>48616.23</v>
       </c>
       <c r="O48">
-        <v>3379</v>
+        <v>37765.32</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>37083.02</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>26413.08</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48">
-        <v>8029.89</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>52444.52</v>
+        <v>500373.46</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3184,19 +3322,19 @@
         <v>2025</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E49">
-        <v>21854.46</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>624821.7819000001</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>12116.1151</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>40316.4462</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3205,22 +3343,22 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>19487.5781</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>229812.833425</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>29071.03</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>325344.86</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>91485.00999999999</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>39357.69</v>
+        <v>0</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3229,10 +3367,10 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>229812.833425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3246,54 +3384,340 @@
         <v>2025</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>2025</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51">
+        <v>23898.82</v>
+      </c>
+      <c r="F51">
+        <v>409625.5938</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>32674.0429</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>74021.34</v>
+      </c>
+      <c r="M51">
+        <v>26512.21</v>
+      </c>
+      <c r="N51">
+        <v>337917.65</v>
+      </c>
+      <c r="O51">
+        <v>60888.94</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>74021.34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52">
+        <v>2025</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52">
+        <v>25326.82</v>
+      </c>
+      <c r="F52">
+        <v>276375.5386</v>
+      </c>
+      <c r="G52">
+        <v>25008.9042</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>23876.1125</v>
+      </c>
+      <c r="M52">
+        <v>27944</v>
+      </c>
+      <c r="N52">
+        <v>230888.76</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>23876.1125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53">
+        <v>2025</v>
+      </c>
+      <c r="D53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53">
+        <v>18541.06</v>
+      </c>
+      <c r="F53">
+        <v>252067.7995</v>
+      </c>
+      <c r="G53">
+        <v>26979.2036</v>
+      </c>
+      <c r="H53">
+        <v>36919.8225</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>5600</v>
+      </c>
+      <c r="L53">
+        <v>52444.52</v>
+      </c>
+      <c r="M53">
+        <v>28895.31</v>
+      </c>
+      <c r="N53">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="O53">
+        <v>3379</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>8029.89</v>
+      </c>
+      <c r="T53">
+        <v>52444.52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54">
+        <v>2025</v>
+      </c>
+      <c r="D54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54">
+        <v>21854.46</v>
+      </c>
+      <c r="F54">
+        <v>624821.7819000001</v>
+      </c>
+      <c r="G54">
+        <v>12116.1151</v>
+      </c>
+      <c r="H54">
+        <v>40316.4462</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>19487.5781</v>
+      </c>
+      <c r="L54">
+        <v>229812.833425</v>
+      </c>
+      <c r="M54">
+        <v>33879.14</v>
+      </c>
+      <c r="N54">
+        <v>325344.86</v>
+      </c>
+      <c r="O54">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="P54">
+        <v>39357.69</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>63566</v>
+      </c>
+      <c r="T54">
+        <v>229812.833425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55">
+        <v>2025</v>
+      </c>
+      <c r="D55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55">
         <v>27683.86</v>
       </c>
-      <c r="F50">
+      <c r="F55">
         <v>418982.5319</v>
       </c>
-      <c r="G50">
+      <c r="G55">
         <v>51527.9349</v>
       </c>
-      <c r="H50">
+      <c r="H55">
         <v>40992.0789</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
         <v>181185.5419</v>
       </c>
-      <c r="L50">
+      <c r="L55">
         <v>60577.37</v>
       </c>
-      <c r="M50">
-        <v>30868.28</v>
-      </c>
-      <c r="N50">
+      <c r="M55">
+        <v>136868.28</v>
+      </c>
+      <c r="N55">
         <v>363209.57</v>
       </c>
-      <c r="O50">
+      <c r="O55">
         <v>65966.92</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
         <v>95933.12</v>
       </c>
-      <c r="T50">
+      <c r="T55">
         <v>60577.37</v>
       </c>
     </row>

--- a/summary/als/merged.xlsx
+++ b/summary/als/merged.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
   <si>
     <t>WELL</t>
   </si>
@@ -103,6 +103,9 @@
     <t>ACAI-106</t>
   </si>
   <si>
+    <t>ACAJ-154</t>
+  </si>
+  <si>
     <t>ACAK-125</t>
   </si>
   <si>
@@ -179,6 +182,12 @@
   </si>
   <si>
     <t>CNOI-041</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>TBD INY</t>
   </si>
   <si>
     <t>TTSA-002</t>
@@ -611,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +696,7 @@
         <v>2025</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E2">
         <v>12973.06</v>
@@ -711,6 +720,30 @@
         <v>0</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>13391.57</v>
+      </c>
+      <c r="N2">
+        <v>279350.01</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>63774.22</v>
+      </c>
+      <c r="T2">
         <v>0</v>
       </c>
     </row>
@@ -725,7 +758,7 @@
         <v>2025</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>25184.02</v>
@@ -763,7 +796,7 @@
         <v>2025</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E4">
         <v>18205.06</v>
@@ -787,6 +820,30 @@
         <v>0</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>33666.72</v>
+      </c>
+      <c r="N4">
+        <v>341703.8</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>0</v>
       </c>
     </row>
@@ -801,7 +858,7 @@
         <v>2025</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>17609.86</v>
@@ -863,7 +920,7 @@
         <v>2025</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>26603.62</v>
@@ -925,7 +982,7 @@
         <v>2025</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>16058</v>
@@ -987,7 +1044,7 @@
         <v>2025</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E8">
         <v>25746.82</v>
@@ -1025,7 +1082,7 @@
         <v>2025</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>18755.46</v>
@@ -1087,7 +1144,7 @@
         <v>2025</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>19408.1</v>
@@ -1149,7 +1206,7 @@
         <v>2025</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>19027.18</v>
@@ -1187,55 +1244,31 @@
         <v>2025</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E12">
-        <v>18205.06</v>
+        <v>12973.06</v>
       </c>
       <c r="F12">
-        <v>350421.9071</v>
+        <v>207427.7507</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>26424.582</v>
       </c>
       <c r="H12">
-        <v>35996.8269</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>59030.4</v>
-      </c>
-      <c r="M12">
-        <v>34720.53</v>
-      </c>
-      <c r="N12">
-        <v>271057.69</v>
-      </c>
-      <c r="O12">
-        <v>19401.54</v>
-      </c>
-      <c r="P12">
-        <v>38992.08</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>59030.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1249,43 +1282,43 @@
         <v>2025</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E13">
-        <v>13645.06</v>
+        <v>18205.06</v>
       </c>
       <c r="F13">
-        <v>299354.9628</v>
+        <v>350421.9071</v>
       </c>
       <c r="G13">
-        <v>12892.7891</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>18459.9112</v>
+        <v>35996.8269</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>59030.4</v>
       </c>
       <c r="M13">
-        <v>19217.69</v>
+        <v>34720.53</v>
       </c>
       <c r="N13">
-        <v>258930.56</v>
+        <v>271057.69</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>19401.54</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>38992.08</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1297,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>59030.4</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1305,7 +1338,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>2025</v>
@@ -1335,6 +1368,30 @@
         <v>0</v>
       </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>19217.69</v>
+      </c>
+      <c r="N14">
+        <v>258930.56</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>0</v>
       </c>
     </row>
@@ -1349,16 +1406,16 @@
         <v>2025</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E15">
-        <v>22457.38</v>
+        <v>11806.48</v>
       </c>
       <c r="F15">
-        <v>294985.4912</v>
+        <v>442421.2041</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>12582.1195</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1373,31 +1430,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>42006.49</v>
-      </c>
-      <c r="M15">
-        <v>40780.28000000001</v>
-      </c>
-      <c r="N15">
-        <v>250365.09</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>42006.49</v>
+        <v>251388.46</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,19 +1444,19 @@
         <v>2025</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E16">
-        <v>44610.66</v>
+        <v>22457.38</v>
       </c>
       <c r="F16">
-        <v>358194.8644</v>
+        <v>294985.4912</v>
       </c>
       <c r="G16">
-        <v>49129.3974</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>25843.8757</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1432,22 +1465,22 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>68709.94259999999</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>42006.49</v>
       </c>
       <c r="M16">
-        <v>24406.71</v>
+        <v>40780.28000000001</v>
       </c>
       <c r="N16">
-        <v>340968.83</v>
+        <v>250365.09</v>
       </c>
       <c r="O16">
-        <v>5162.22</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>22756.23</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1456,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>115340</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>42006.49</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,19 +1506,19 @@
         <v>2025</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E17">
-        <v>35264.5</v>
+        <v>44610.66</v>
       </c>
       <c r="F17">
-        <v>290894.2855</v>
+        <v>358194.8644</v>
       </c>
       <c r="G17">
-        <v>25630.2434</v>
+        <v>49129.3974</v>
       </c>
       <c r="H17">
-        <v>36735.2234</v>
+        <v>25843.8757</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1494,22 +1527,22 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>68709.94259999999</v>
       </c>
       <c r="L17">
-        <v>41846.3631</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>37882.47</v>
+        <v>24406.71</v>
       </c>
       <c r="N17">
-        <v>278938.71</v>
+        <v>334593.33</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>5162.22</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>22756.23</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1518,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>115340</v>
       </c>
       <c r="T17">
-        <v>41846.3631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,19 +1568,19 @@
         <v>2025</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E18">
-        <v>13645.06</v>
+        <v>35264.5</v>
       </c>
       <c r="F18">
-        <v>299354.9628</v>
+        <v>290894.2855</v>
       </c>
       <c r="G18">
-        <v>12892.7891</v>
+        <v>25630.2434</v>
       </c>
       <c r="H18">
-        <v>18459.9112</v>
+        <v>36735.2234</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1559,7 +1592,31 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>41846.3631</v>
+      </c>
+      <c r="M18">
+        <v>37882.47</v>
+      </c>
+      <c r="N18">
+        <v>278938.71</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>41846.3631</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1573,19 +1630,19 @@
         <v>2025</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E19">
-        <v>21182.46</v>
+        <v>13645.06</v>
       </c>
       <c r="F19">
-        <v>516832.16</v>
+        <v>299354.9628</v>
       </c>
       <c r="G19">
-        <v>41714.5254</v>
+        <v>12892.7891</v>
       </c>
       <c r="H19">
-        <v>36735.2234</v>
+        <v>18459.9112</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1594,34 +1651,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5293.4</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>199012.794</v>
-      </c>
-      <c r="M19">
-        <v>29506.7</v>
-      </c>
-      <c r="N19">
-        <v>455228.52</v>
-      </c>
-      <c r="O19">
-        <v>2181.06</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>64902.09</v>
-      </c>
-      <c r="T19">
-        <v>199012.794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1629,22 +1662,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>2025</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E20">
-        <v>18397.06</v>
+        <v>21182.46</v>
       </c>
       <c r="F20">
-        <v>326646.9343</v>
+        <v>516832.16</v>
       </c>
       <c r="G20">
-        <v>24329.9319</v>
+        <v>41714.5254</v>
       </c>
       <c r="H20">
         <v>36735.2234</v>
@@ -1656,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5293.4</v>
       </c>
       <c r="L20">
-        <v>36863.1</v>
+        <v>199012.794</v>
       </c>
       <c r="M20">
-        <v>36093.04</v>
+        <v>29506.7</v>
       </c>
       <c r="N20">
-        <v>324824.84</v>
+        <v>455228.52</v>
       </c>
       <c r="O20">
-        <v>7421.05</v>
+        <v>2181.06</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1680,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>64902.09</v>
       </c>
       <c r="T20">
-        <v>36863.1</v>
+        <v>199012.794</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1697,19 +1730,19 @@
         <v>2025</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E21">
-        <v>25142.02</v>
+        <v>18397.06</v>
       </c>
       <c r="F21">
-        <v>277188.6893</v>
+        <v>326646.9343</v>
       </c>
       <c r="G21">
-        <v>24698.2346</v>
+        <v>24329.9319</v>
       </c>
       <c r="H21">
-        <v>35406.1098</v>
+        <v>36735.2234</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1721,16 +1754,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>173339.58</v>
+        <v>36863.1</v>
       </c>
       <c r="M21">
-        <v>28089.2</v>
+        <v>36093.04</v>
       </c>
       <c r="N21">
-        <v>160763.94</v>
+        <v>324824.84</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>7421.05</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1745,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>173339.58</v>
+        <v>36863.1</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1759,19 +1792,19 @@
         <v>2025</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E22">
-        <v>15006.48</v>
+        <v>25142.02</v>
       </c>
       <c r="F22">
-        <v>324866.7652</v>
+        <v>277188.6893</v>
       </c>
       <c r="G22">
-        <v>38730.0079</v>
+        <v>24698.2346</v>
       </c>
       <c r="H22">
-        <v>39190.3916</v>
+        <v>35406.1098</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1783,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>173339.58</v>
       </c>
       <c r="M22">
-        <v>50944.75</v>
+        <v>28089.2</v>
       </c>
       <c r="N22">
-        <v>288251.2</v>
+        <v>160763.94</v>
       </c>
       <c r="O22">
-        <v>9109.799999999999</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>16977.39</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1807,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>173339.58</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1821,19 +1854,19 @@
         <v>2025</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E23">
-        <v>26099.62</v>
+        <v>15006.48</v>
       </c>
       <c r="F23">
-        <v>278579.4218</v>
+        <v>324866.7652</v>
       </c>
       <c r="G23">
-        <v>26251.5827</v>
+        <v>38730.0079</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>39190.3916</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1845,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>29992.31</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>24651.29</v>
+        <v>50944.75</v>
       </c>
       <c r="N23">
-        <v>267851.66</v>
+        <v>288251.2</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>16977.39</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -1869,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>29992.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1883,16 +1916,16 @@
         <v>2025</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E24">
-        <v>27006.82</v>
+        <v>26099.62</v>
       </c>
       <c r="F24">
-        <v>264147.2883</v>
+        <v>278579.4218</v>
       </c>
       <c r="G24">
-        <v>27649.596</v>
+        <v>26251.5827</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1907,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>64312.56099999999</v>
+        <v>29992.31</v>
       </c>
       <c r="M24">
-        <v>33999.38</v>
+        <v>24651.29</v>
       </c>
       <c r="N24">
-        <v>278850.94</v>
+        <v>267851.66</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1931,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>64312.56099999999</v>
+        <v>29992.31</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1945,19 +1978,19 @@
         <v>2025</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E25">
-        <v>18896.26</v>
+        <v>27006.82</v>
       </c>
       <c r="F25">
-        <v>320793.0784</v>
+        <v>264147.2883</v>
       </c>
       <c r="G25">
-        <v>27028.2567</v>
+        <v>27649.596</v>
       </c>
       <c r="H25">
-        <v>10686.4527</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1969,7 +2002,31 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>64312.56099999999</v>
+      </c>
+      <c r="M25">
+        <v>33999.38</v>
+      </c>
+      <c r="N25">
+        <v>278850.94</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>64312.56099999999</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -1983,19 +2040,19 @@
         <v>2025</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E26">
-        <v>17000</v>
+        <v>18896.26</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>320793.0784</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>27028.2567</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>10686.4527</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2021,19 +2078,19 @@
         <v>2025</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E27">
-        <v>26563.62</v>
+        <v>17000</v>
       </c>
       <c r="F27">
-        <v>283269.233</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>25785.5783</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>36919.8225</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2045,31 +2102,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>18450</v>
-      </c>
-      <c r="M27">
-        <v>32674.29</v>
-      </c>
-      <c r="N27">
-        <v>290087.79</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>16697.25</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>18450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2083,19 +2116,19 @@
         <v>2025</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28">
-        <v>18812.78</v>
+        <v>26563.62</v>
       </c>
       <c r="F28">
-        <v>591541.1514</v>
+        <v>283269.233</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>25785.5783</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>36919.8225</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2104,34 +2137,34 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>95464.1189</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>19227.3628</v>
+        <v>18450</v>
       </c>
       <c r="M28">
-        <v>23508.78</v>
+        <v>32674.29</v>
       </c>
       <c r="N28">
-        <v>568269.17</v>
+        <v>290087.79</v>
       </c>
       <c r="O28">
-        <v>2615.02</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>16697.25</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>90840</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>19719.56</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2145,16 +2178,16 @@
         <v>2025</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E29">
-        <v>21300</v>
+        <v>18812.78</v>
       </c>
       <c r="F29">
-        <v>303500</v>
+        <v>591541.1514</v>
       </c>
       <c r="G29">
-        <v>39800</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2166,10 +2199,34 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>40000</v>
+        <v>95464.1189</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>19227.3628</v>
+      </c>
+      <c r="M29">
+        <v>23508.78</v>
+      </c>
+      <c r="N29">
+        <v>568269.17</v>
+      </c>
+      <c r="O29">
+        <v>2615.02</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>36493.87</v>
+      </c>
+      <c r="S29">
+        <v>90840</v>
+      </c>
+      <c r="T29">
+        <v>19719.56</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2186,13 +2243,13 @@
         <v>71</v>
       </c>
       <c r="E30">
-        <v>18963.92</v>
+        <v>21300</v>
       </c>
       <c r="F30">
-        <v>267383.277</v>
+        <v>303500</v>
       </c>
       <c r="G30">
-        <v>25093.7551</v>
+        <v>39800</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2201,36 +2258,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>29758.22</v>
-      </c>
-      <c r="N30">
-        <v>245114.65</v>
-      </c>
-      <c r="O30">
-        <v>6805.46</v>
-      </c>
-      <c r="P30">
-        <v>10800.63</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>36493.87</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
         <v>0</v>
       </c>
     </row>
@@ -2245,25 +2278,25 @@
         <v>2025</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E31">
-        <v>16590.18</v>
+        <v>18963.92</v>
       </c>
       <c r="F31">
-        <v>327010.7217</v>
+        <v>267383.277</v>
       </c>
       <c r="G31">
-        <v>25630.2434</v>
+        <v>25093.7551</v>
       </c>
       <c r="H31">
-        <v>36402.945</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2272,22 +2305,22 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>21705.25</v>
+        <v>29758.22</v>
       </c>
       <c r="N31">
-        <v>287071.98</v>
+        <v>245114.65</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>6805.46</v>
       </c>
       <c r="P31">
-        <v>36194.4</v>
+        <v>10800.63</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2307,19 +2340,19 @@
         <v>2025</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E32">
-        <v>18460.42</v>
+        <v>16590.18</v>
       </c>
       <c r="F32">
-        <v>281664.89</v>
+        <v>327010.7217</v>
       </c>
       <c r="G32">
-        <v>25785.58</v>
+        <v>25630.2434</v>
       </c>
       <c r="H32">
-        <v>36978.89</v>
+        <v>36402.945</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2334,16 +2367,16 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>28420.94</v>
+        <v>21705.25</v>
       </c>
       <c r="N32">
-        <v>239742.97</v>
+        <v>287071.98</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>36194.4</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2369,19 +2402,19 @@
         <v>2025</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33">
-        <v>18541.06</v>
+        <v>18460.42</v>
       </c>
       <c r="F33">
-        <v>319530.8217</v>
+        <v>281664.89</v>
       </c>
       <c r="G33">
-        <v>36708.3923</v>
+        <v>25785.58</v>
       </c>
       <c r="H33">
-        <v>37289.0207</v>
+        <v>36978.89</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2390,22 +2423,22 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>5373.2</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>24335.07</v>
+        <v>28420.94</v>
       </c>
       <c r="N33">
-        <v>247385.28</v>
+        <v>239742.97</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>6678.9</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2417,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2431,19 +2464,19 @@
         <v>2025</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E34">
-        <v>14932.88</v>
+        <v>18541.06</v>
       </c>
       <c r="F34">
-        <v>262147.1729</v>
+        <v>319530.8217</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>36708.3923</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>37289.0207</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2452,22 +2485,22 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>5376</v>
+        <v>5373.2</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
       <c r="M34">
-        <v>22202.17</v>
+        <v>24335.07</v>
       </c>
       <c r="N34">
-        <v>231965.51</v>
+        <v>247385.28</v>
       </c>
       <c r="O34">
-        <v>3310.93</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>6678.9</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2479,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2493,19 +2526,19 @@
         <v>2025</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E35">
-        <v>16058</v>
+        <v>14932.88</v>
       </c>
       <c r="F35">
-        <v>317342.6932</v>
+        <v>262147.1729</v>
       </c>
       <c r="G35">
-        <v>26406.9175</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>36993.6621</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2514,19 +2547,19 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>5376</v>
       </c>
       <c r="L35">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>31949.91</v>
+        <v>22202.17</v>
       </c>
       <c r="N35">
-        <v>264422.99</v>
+        <v>231965.51</v>
       </c>
       <c r="O35">
-        <v>6589.74</v>
+        <v>3310.93</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2541,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2555,19 +2588,19 @@
         <v>2025</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E36">
-        <v>15265.68</v>
+        <v>16058</v>
       </c>
       <c r="F36">
-        <v>311352.2643</v>
+        <v>317342.6932</v>
       </c>
       <c r="G36">
         <v>26406.9175</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>36993.6621</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2579,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>14106.87</v>
       </c>
       <c r="M36">
-        <v>34725.64</v>
+        <v>31949.91</v>
       </c>
       <c r="N36">
-        <v>314368.92</v>
+        <v>264422.99</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>6589.74</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -2603,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>14106.87</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2617,16 +2650,16 @@
         <v>2025</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E37">
-        <v>20558.98</v>
+        <v>15265.68</v>
       </c>
       <c r="F37">
-        <v>300178.145</v>
+        <v>311352.2643</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>26406.9175</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2635,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2644,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>35983.12</v>
+        <v>34725.64</v>
       </c>
       <c r="N37">
-        <v>297098.25</v>
+        <v>314368.92</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2659,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -2679,13 +2712,13 @@
         <v>2025</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E38">
-        <v>80000</v>
+        <v>20558.98</v>
       </c>
       <c r="F38">
-        <v>120000</v>
+        <v>300178.145</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2694,22 +2727,22 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>22674.42</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>52083.67</v>
+        <v>35983.12</v>
       </c>
       <c r="N38">
-        <v>166132.1</v>
+        <v>297098.25</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -2721,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -2741,22 +2774,22 @@
         <v>2025</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E39">
-        <v>14668.56</v>
+        <v>80000</v>
       </c>
       <c r="F39">
-        <v>301721.9088</v>
+        <v>120000</v>
       </c>
       <c r="G39">
-        <v>24232.2302</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2765,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>22674.42</v>
       </c>
       <c r="M39">
-        <v>27181.54</v>
+        <v>52083.67</v>
       </c>
       <c r="N39">
-        <v>270393.7</v>
+        <v>166132.1</v>
       </c>
       <c r="O39">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -2803,22 +2836,22 @@
         <v>2025</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E40">
-        <v>30000</v>
+        <v>14668.56</v>
       </c>
       <c r="F40">
-        <v>120000</v>
+        <v>301721.9088</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>24232.2302</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2827,16 +2860,16 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>22674.42</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>81189.56</v>
+        <v>27181.54</v>
       </c>
       <c r="N40">
-        <v>75026.78</v>
+        <v>270393.7</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>22089.34</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -2851,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>21490.444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2865,54 +2898,30 @@
         <v>2025</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>103206.2</v>
       </c>
       <c r="F41">
-        <v>433983.8522</v>
+        <v>2076739.152</v>
       </c>
       <c r="G41">
-        <v>66756.6691</v>
+        <v>182668.1546</v>
       </c>
       <c r="H41">
-        <v>37362.8604</v>
+        <v>151186.6732</v>
       </c>
       <c r="I41">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>110048.5105</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>33875.99</v>
-      </c>
-      <c r="N41">
-        <v>388449.69</v>
-      </c>
-      <c r="O41">
-        <v>41728.31</v>
-      </c>
-      <c r="P41">
-        <v>34125.23</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
         <v>0</v>
       </c>
     </row>
@@ -2927,19 +2936,19 @@
         <v>2025</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E42">
-        <v>19881.64</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>544086.7781999999</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>34335.4349</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2951,30 +2960,6 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>24492.98</v>
-      </c>
-      <c r="N42">
-        <v>532274.26</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>13669.61</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
         <v>0</v>
       </c>
     </row>
@@ -2989,22 +2974,22 @@
         <v>2025</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E43">
-        <v>20006.44</v>
+        <v>30000</v>
       </c>
       <c r="F43">
-        <v>386492.0891</v>
+        <v>120000</v>
       </c>
       <c r="G43">
-        <v>26973.826</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3013,7 +2998,31 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>22674.42</v>
+      </c>
+      <c r="M43">
+        <v>81189.56</v>
+      </c>
+      <c r="N43">
+        <v>75026.78</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>21490.444</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3027,43 +3036,43 @@
         <v>2025</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E44">
-        <v>32773.06</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>341581.165</v>
+        <v>433983.8522</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>66756.6691</v>
       </c>
       <c r="H44">
-        <v>36550.6243</v>
+        <v>37362.8604</v>
       </c>
       <c r="I44">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>110048.5105</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
-        <v>35046.84</v>
+        <v>33875.99</v>
       </c>
       <c r="N44">
-        <v>349849.48</v>
+        <v>388449.69</v>
       </c>
       <c r="O44">
-        <v>11417</v>
+        <v>41728.31</v>
       </c>
       <c r="P44">
-        <v>36470.26</v>
+        <v>34125.23</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3092,16 +3101,16 @@
         <v>74</v>
       </c>
       <c r="E45">
-        <v>29792.44</v>
+        <v>19881.64</v>
       </c>
       <c r="F45">
-        <v>592371.3167</v>
+        <v>544086.7781999999</v>
       </c>
       <c r="G45">
-        <v>25940.9131</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>37196.7212</v>
+        <v>34335.4349</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3113,22 +3122,22 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>35571.27</v>
+        <v>24492.98</v>
       </c>
       <c r="N45">
-        <v>48616.23</v>
+        <v>532274.26</v>
       </c>
       <c r="O45">
-        <v>37765.32</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>37083.02</v>
+        <v>13669.61</v>
       </c>
       <c r="Q45">
-        <v>26413.08</v>
+        <v>0</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -3137,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3151,16 +3160,16 @@
         <v>2025</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>20006.44</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>386492.0891</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>26973.826</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3175,30 +3184,6 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
         <v>0</v>
       </c>
     </row>
@@ -3213,22 +3198,22 @@
         <v>2025</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>32773.06</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>341581.165</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>36550.6243</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3237,6 +3222,30 @@
         <v>0</v>
       </c>
       <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>35046.84</v>
+      </c>
+      <c r="N47">
+        <v>349849.48</v>
+      </c>
+      <c r="O47">
+        <v>11417</v>
+      </c>
+      <c r="P47">
+        <v>36470.26</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
         <v>0</v>
       </c>
     </row>
@@ -3251,19 +3260,19 @@
         <v>2025</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E48">
-        <v>23898.82</v>
+        <v>29792.44</v>
       </c>
       <c r="F48">
-        <v>409625.5938</v>
+        <v>592371.3167</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>25940.9131</v>
       </c>
       <c r="H48">
-        <v>32674.0429</v>
+        <v>37196.7212</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3275,7 +3284,31 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>42006.49</v>
+        <v>500373.46</v>
+      </c>
+      <c r="M48">
+        <v>35571.27</v>
+      </c>
+      <c r="N48">
+        <v>48616.23</v>
+      </c>
+      <c r="O48">
+        <v>37765.32</v>
+      </c>
+      <c r="P48">
+        <v>37083.02</v>
+      </c>
+      <c r="Q48">
+        <v>26413.08</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>500373.46</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3289,16 +3322,16 @@
         <v>2025</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E49">
-        <v>25326.82</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>276375.5386</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>25008.9042</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3313,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>27944</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>230888.76</v>
+        <v>0</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -3337,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3351,19 +3384,19 @@
         <v>2025</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E50">
-        <v>18541.06</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>252067.7995</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>26979.2036</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>36919.8225</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3372,34 +3405,10 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>52444.52</v>
-      </c>
-      <c r="M50">
-        <v>28895.31</v>
-      </c>
-      <c r="N50">
-        <v>251643.6000000001</v>
-      </c>
-      <c r="O50">
-        <v>3379</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>8029.89</v>
-      </c>
-      <c r="T50">
-        <v>52444.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -3413,19 +3422,19 @@
         <v>2025</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E51">
-        <v>21854.46</v>
+        <v>23898.82</v>
       </c>
       <c r="F51">
-        <v>624821.7819000001</v>
+        <v>409625.5938</v>
       </c>
       <c r="G51">
-        <v>12116.1151</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>40316.4462</v>
+        <v>32674.0429</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3434,22 +3443,22 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>19487.5781</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>229812.833425</v>
+        <v>74021.34</v>
       </c>
       <c r="M51">
-        <v>33879.14</v>
+        <v>26512.21</v>
       </c>
       <c r="N51">
-        <v>325344.86</v>
+        <v>337917.65</v>
       </c>
       <c r="O51">
-        <v>91485.00999999999</v>
+        <v>60888.94</v>
       </c>
       <c r="P51">
-        <v>39357.69</v>
+        <v>0</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -3458,10 +3467,10 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>229812.833425</v>
+        <v>74021.34</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -3475,54 +3484,240 @@
         <v>2025</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E52">
+        <v>25326.82</v>
+      </c>
+      <c r="F52">
+        <v>276375.5386</v>
+      </c>
+      <c r="G52">
+        <v>25008.9042</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>23876.1125</v>
+      </c>
+      <c r="M52">
+        <v>27944</v>
+      </c>
+      <c r="N52">
+        <v>230888.76</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>23876.1125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53">
+        <v>2025</v>
+      </c>
+      <c r="D53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53">
+        <v>18541.06</v>
+      </c>
+      <c r="F53">
+        <v>252067.7995</v>
+      </c>
+      <c r="G53">
+        <v>26979.2036</v>
+      </c>
+      <c r="H53">
+        <v>36919.8225</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>5600</v>
+      </c>
+      <c r="L53">
+        <v>52444.52</v>
+      </c>
+      <c r="M53">
+        <v>28895.31</v>
+      </c>
+      <c r="N53">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="O53">
+        <v>3379</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>8029.89</v>
+      </c>
+      <c r="T53">
+        <v>52444.52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54">
+        <v>2025</v>
+      </c>
+      <c r="D54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54">
+        <v>21854.46</v>
+      </c>
+      <c r="F54">
+        <v>624821.7819000001</v>
+      </c>
+      <c r="G54">
+        <v>12116.1151</v>
+      </c>
+      <c r="H54">
+        <v>40316.4462</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>19487.5781</v>
+      </c>
+      <c r="L54">
+        <v>229812.833425</v>
+      </c>
+      <c r="M54">
+        <v>33879.14</v>
+      </c>
+      <c r="N54">
+        <v>325344.86</v>
+      </c>
+      <c r="O54">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="P54">
+        <v>39357.69</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>63566</v>
+      </c>
+      <c r="T54">
+        <v>229812.833425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55">
+        <v>2025</v>
+      </c>
+      <c r="D55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55">
         <v>27683.86</v>
       </c>
-      <c r="F52">
+      <c r="F55">
         <v>418982.5319</v>
       </c>
-      <c r="G52">
+      <c r="G55">
         <v>51527.9349</v>
       </c>
-      <c r="H52">
+      <c r="H55">
         <v>40992.0789</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
         <v>181185.5419</v>
       </c>
-      <c r="L52">
+      <c r="L55">
         <v>60577.37</v>
       </c>
-      <c r="M52">
-        <v>30868.28</v>
-      </c>
-      <c r="N52">
+      <c r="M55">
+        <v>136868.28</v>
+      </c>
+      <c r="N55">
         <v>363209.57</v>
       </c>
-      <c r="O52">
+      <c r="O55">
         <v>65966.92</v>
       </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
         <v>95933.12</v>
       </c>
-      <c r="T52">
+      <c r="T55">
         <v>60577.37</v>
       </c>
     </row>
